--- a/medicine/Mort/Sanctuaire_national_des_martyrs_de_la_révolution/Sanctuaire_national_des_martyrs_de_la_révolution.xlsx
+++ b/medicine/Mort/Sanctuaire_national_des_martyrs_de_la_révolution/Sanctuaire_national_des_martyrs_de_la_révolution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sanctuaire_national_des_martyrs_de_la_r%C3%A9volution</t>
+          <t>Sanctuaire_national_des_martyrs_de_la_révolution</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sanctuaire national des martyrs de la révolution (chinois : 國民革命忠烈祠, pinyin : Guómín Gémìng Zhōngliècí, anglais : National Revolutionary Martyrs' Shrine) est un sanctuaire dans le district de Zhongshan, Taïpei, Taïwan, qui honore la mémoire des Hommes tombés pour la République de Chine. 
 Le sanctuaire est construit en 1969 sur la montagne Chingshan, à l'emplacement d'un ancien sanctuaire shintoïste datant de l'époque coloniale, le sanctuaire Taiwan-gokoku-jinja (台湾護国神社). Surplombant la rivière Keelung dans le district de Zhongshan, le sanctuaire reprend l’architecture de la Salle de l’Harmonie Suprême dans la Cité Interdite de Pékin. Le complexe abrite les âmes d’environ 390.000 personnes tuées entre autres durant la Révolution Xinhai, l’Expédition du Nord, la Seconde guerre Sino-japonaise, la guerre civile chinoise, et les première et deuxième crise du détroit de Taïwan. Une relève de la garde effectuée par les différents corps de l'armée de la république de Chine, similaire à celle du Mémorial de Sun Yat-Sen et du Mémorial de Tchang Kaï-chek, se déroule dans le sanctuaire.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sanctuaire_national_des_martyrs_de_la_r%C3%A9volution</t>
+          <t>Sanctuaire_national_des_martyrs_de_la_révolution</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Transport</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sanctuaire est accessible à pied depuis la station Dazhi du Métro de Taïpei. 
 </t>
